--- a/output/page_13.xlsx
+++ b/output/page_13.xlsx
@@ -7,14 +7,32 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Page 1 - Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="102">
+  <si>
+    <t>MASTER PACKAGE</t>
+  </si>
+  <si>
+    <t>WesternGlove Centric8 PROD</t>
+  </si>
+  <si>
+    <t>M12225BVS563:KONRAD</t>
+  </si>
+  <si>
+    <t>M12225BVS</t>
+  </si>
+  <si>
+    <t>MASTER</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
   <si>
     <t>Dim</t>
   </si>
@@ -656,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,8 +682,8 @@
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
@@ -682,794 +700,824 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N5" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="M11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G17" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="I21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A20:O20"/>
+    <mergeCell ref="A19:O19"/>
+    <mergeCell ref="A24:O24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/page_13.xlsx
+++ b/output/page_13.xlsx
@@ -7,28 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="page_13 - Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="102">
-  <si>
-    <t>MASTER PACKAGE</t>
-  </si>
-  <si>
-    <t>WesternGlove Centric8 PROD</t>
-  </si>
-  <si>
-    <t>M12225BVS563:KONRAD</t>
-  </si>
-  <si>
-    <t>M12225BVS</t>
-  </si>
-  <si>
-    <t>MASTER</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
+  <si>
+    <t xml:space="preserve"> MASTER PACKAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WesternGlove Centric8 PROD                                                     M12225BVS563:KONRAD                                             M12225BVS                             MASTER</t>
   </si>
   <si>
     <t>Dimensions</t>
@@ -257,8 +248,7 @@
     <t>FRONT PKT OPENING @ WAIST (HORIZ.) (new sz breaks)</t>
   </si>
   <si>
-    <t>%
-=</t>
+    <t>%=</t>
   </si>
   <si>
     <t>4</t>
@@ -322,16 +312,14 @@
     <t>6%</t>
   </si>
   <si>
-    <t>Displaying 15 - 31 of 49 results
-Units: Fractions of inches
-Increment Display: Absolute</t>
+    <t>Displaying 15 - 31 of 49 results                                                                                                                                                                              Units: Fractions of inches    Increment Display: Absolute</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,13 +327,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F2F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -375,9 +398,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,848 +712,911 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="O5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="J6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="K6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="N6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="O6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
+      <c r="O7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="L8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="N8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="O8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="F9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="I9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="J9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="M9" s="5"/>
+      <c r="N9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="O9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="E11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="N15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O16" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
+    <row r="17" spans="1:15">
+      <c r="A17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="G17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1" t="s">
+      <c r="H17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="J17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="K17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="M17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1" t="s">
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="K18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="L18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
+      <c r="N18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1" t="s">
+      <c r="D20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="F20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="J21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="L21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="M21" s="5"/>
+      <c r="N21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="O21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1" t="s">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
+      <c r="C23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1" t="s">
+      <c r="J23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="L23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="A4:Z4"/>
     <mergeCell ref="A19:O19"/>
     <mergeCell ref="A24:O24"/>
   </mergeCells>
